--- a/shop_url.xlsx
+++ b/shop_url.xlsx
@@ -20,11 +20,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="177">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Тумба под ТВ Ацтека Azteca RTV2D2S/4/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комод Ацтека Azteca KOM4S/8/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комод Индиана Indiana (сосна канйон) JKOM_4s/80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол письменный Индиана Indiana (сосна канйон) JBIU_2d2s_140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRW (БРВ) КОМОД ДЖУЛИ JULY KOM4S/90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRW (БРВ) Шкаф платяной Порто Porto SZF3D2S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerbor (Гербор) Комод Соната Sonata 8/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRW (БРВ) Стол компютерный, письменный Каспиан Kaspian Дуб Сонома BIU 1D1S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прихожая Непо Nepo PPK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КВАТРО QUATRO (ВЕНГЕ МАГИЯ) ГОСТИНАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerbor (Гербор) Комод Вушер Vusher KOM 1W2D2S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМОД ГЕРМАН KOM3S/9/12 БРВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУМБА ПОД ТЕЛЕВИЗОР АЛИСА RTV2S2K ГЕРБОР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМОД КОЕН МДФ KOM4S ГЕРБОР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рекомендовані ціни</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наш сайт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mebli-bristol.com.ua/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mebli-bristol.com.ua/acteka-tumba-rtv-2d2s-4-15-brv-ukraina.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://gerbor.kiev.ua/</t>
   </si>
   <si>
@@ -32,9 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://gerbor.kiev.ua/mebel-brv-ukraina/mebel-brw-azteca/azteca-komod-kom4s-brv/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">https://gerbor.kiev.ua/mebel-brv-ukraina/mebel-indiana-brw/indiana-stol-pismennyy-jbiu2d2s140-brv/</t>
@@ -572,12 +626,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -634,12 +694,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -647,19 +719,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -740,592 +808,751 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20:F20"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.62"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>4470</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>5400</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>4170</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>6250</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>2660</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>6250</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>7290</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>3900</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>2440</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>4130</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>5350</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>4940</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>4030</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
+      <c r="A6" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>31</v>
+      <c r="A7" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>46</v>
+      <c r="A8" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>61</v>
+      <c r="A9" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>76</v>
+      <c r="A10" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>91</v>
+      <c r="A11" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>105</v>
+      <c r="A12" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>119</v>
+      <c r="A13" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>134</v>
+      <c r="A14" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>146</v>
+      <c r="A15" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="http://gerbor.kiev.ua/"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://gerbor.kiev.ua/mebel-brv-ukraina/mebel-brw-azteca/azteca-tumba-tv-rtv2d2s-brv/"/>
-    <hyperlink ref="C5" r:id="rId3" display="https://gerbor.kiev.ua/mebel-brv-ukraina/mebel-brw-azteca/azteca-komod-kom4s-brv/"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://gerbor.kiev.ua/mebel-brv-ukraina/mebel-indiana-brw/indiana-stol-pismennyy-jbiu2d2s140-brv/"/>
-    <hyperlink ref="A6" r:id="rId5" display="http://www.brwland.com.ua/"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://vashamebel.in.ua/"/>
-    <hyperlink ref="A8" r:id="rId7" display="http://mebel-mebel.com.ua/"/>
-    <hyperlink ref="A9" r:id="rId8" display="http://abcmebli.com.ua"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://gerbor.mebelok.com/"/>
-    <hyperlink ref="A11" r:id="rId10" display="http://maxmebel.com.ua/"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://moyamebel.com.ua/ua"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://brw.kiev.ua/"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://shurup.net.ua/"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://mebel-online.com.ua"/>
+    <hyperlink ref="B1" r:id="rId1" display="Тумба под ТВ Ацтека Azteca RTV2D2S/4/15"/>
+    <hyperlink ref="C1" r:id="rId2" display="Комод Ацтека Azteca KOM4S/8/11"/>
+    <hyperlink ref="D1" r:id="rId3" display="Комод Индиана Indiana (сосна канйон) JKOM_4s/80"/>
+    <hyperlink ref="E1" r:id="rId4" display="Стол письменный Индиана Indiana (сосна канйон) JBIU_2d2s_140"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://mebli-bristol.com.ua/"/>
+    <hyperlink ref="B4" r:id="rId6" display="https://mebli-bristol.com.ua/acteka-tumba-rtv-2d2s-4-15-brv-ukraina.html"/>
+    <hyperlink ref="A5" r:id="rId7" display="http://gerbor.kiev.ua/"/>
+    <hyperlink ref="B5" r:id="rId8" display="https://gerbor.kiev.ua/mebel-brv-ukraina/mebel-brw-azteca/azteca-tumba-tv-rtv2d2s-brv/"/>
+    <hyperlink ref="C5" r:id="rId9" display="https://gerbor.kiev.ua/mebel-brv-ukraina/mebel-brw-azteca/azteca-komod-kom4s-brv/"/>
+    <hyperlink ref="E5" r:id="rId10" display="https://gerbor.kiev.ua/mebel-brv-ukraina/mebel-indiana-brw/indiana-stol-pismennyy-jbiu2d2s140-brv/"/>
+    <hyperlink ref="A6" r:id="rId11" display="http://www.brwland.com.ua/"/>
+    <hyperlink ref="A7" r:id="rId12" display="https://vashamebel.in.ua/"/>
+    <hyperlink ref="A8" r:id="rId13" display="http://mebel-mebel.com.ua/"/>
+    <hyperlink ref="A9" r:id="rId14" display="http://abcmebli.com.ua"/>
+    <hyperlink ref="A10" r:id="rId15" display="https://gerbor.mebelok.com/"/>
+    <hyperlink ref="A11" r:id="rId16" display="http://maxmebel.com.ua/"/>
+    <hyperlink ref="A12" r:id="rId17" display="https://moyamebel.com.ua/ua"/>
+    <hyperlink ref="A13" r:id="rId18" display="https://brw.kiev.ua/"/>
+    <hyperlink ref="A14" r:id="rId19" display="https://shurup.net.ua/"/>
+    <hyperlink ref="A15" r:id="rId20" display="https://mebel-online.com.ua"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/shop_url.xlsx
+++ b/shop_url.xlsx
@@ -100,7 +100,7 @@
     <t xml:space="preserve">https://redlight.com.ua/prihozhie/item-nepo-prihozhaya-rrk-</t>
   </si>
   <si>
-    <t xml:space="preserve">http://redlight.com.ua/stenki/item-stenka-alyaska</t>
+    <t xml:space="preserve">https://redlight.com.ua/stenki/item-stenka-arktika</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
@@ -271,6 +271,9 @@
     <t xml:space="preserve">https://www.dybok.com.ua/ru/product/detail/261</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dybok.com.ua/ua/product/detail/6029</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.dybok.com.ua/ru/product/detail/50410</t>
   </si>
   <si>
@@ -446,9 +449,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.mebelok.com/prihojaya-ppk-nepo/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mebelok.com/gostinaya-alyaska/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mebelok.com/gostinaya-kvatro/</t>
@@ -1140,10 +1140,10 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="7:7"/>
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.96"/>
   </cols>
@@ -1436,13 +1436,13 @@
         <v>82</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>27</v>
@@ -1451,7 +1451,7 @@
         <v>27</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>27</v>
@@ -1465,52 +1465,52 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="0" t="s">
         <v>28</v>
@@ -1518,52 +1518,52 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="0" t="s">
         <v>28</v>
@@ -1571,52 +1571,52 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="0" t="s">
         <v>28</v>
@@ -1624,37 +1624,37 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>143</v>
@@ -2480,31 +2480,33 @@
     <hyperlink ref="E1" r:id="rId4" display="Стол письменный Индиана Indiana (сосна канйон) JBIU_2d2s_140"/>
     <hyperlink ref="K1" r:id="rId5" display="Аляска Alaska гостиная"/>
     <hyperlink ref="A4" r:id="rId6" display="http://redlight.com.ua/"/>
-    <hyperlink ref="A5" r:id="rId7" display="http://gerbor.kiev.ua/"/>
-    <hyperlink ref="A6" r:id="rId8" display="http://www.brwland.com.ua/"/>
-    <hyperlink ref="A7" r:id="rId9" display="http://gerbor.dp.ua/"/>
-    <hyperlink ref="A8" r:id="rId10" display="https://www.dybok.com.ua/"/>
-    <hyperlink ref="A9" r:id="rId11" display="https://vashamebel.in.ua/"/>
-    <hyperlink ref="A10" r:id="rId12" display="http://mebel-mebel.com.ua/"/>
-    <hyperlink ref="A11" r:id="rId13" display="http://abcmebli.com.ua"/>
-    <hyperlink ref="A12" r:id="rId14" display="https://gerbor.mebelok.com/"/>
-    <hyperlink ref="A13" r:id="rId15" display="http://maxmebel.com.ua/"/>
-    <hyperlink ref="A14" r:id="rId16" display="https://moyamebel.com.ua/ua"/>
-    <hyperlink ref="A15" r:id="rId17" display="https://mebel-soyuz.com.ua/"/>
-    <hyperlink ref="A16" r:id="rId18" display="https://sofino.ua/"/>
-    <hyperlink ref="A17" r:id="rId19" display="https://www.brw-kiev.com.ua/"/>
-    <hyperlink ref="A18" r:id="rId20" display="https://brw.kiev.ua/"/>
-    <hyperlink ref="A19" r:id="rId21" display="https://lvivmebli.com/"/>
-    <hyperlink ref="A20" r:id="rId22" display="https://letromebel.com.ua/"/>
-    <hyperlink ref="A21" r:id="rId23" display="https://shurup.net.ua/"/>
-    <hyperlink ref="A22" r:id="rId24" display="https://www.taburetka.ua"/>
-    <hyperlink ref="A23" r:id="rId25" display="http://www.maxidom.com.ua/"/>
-    <hyperlink ref="B23" r:id="rId26" display="https://www.maxidom.com.ua/tumba-rtv-atsteka-2d2s415/"/>
-    <hyperlink ref="A24" r:id="rId27" display="https://mebel-online.com.ua"/>
-    <hyperlink ref="A25" r:id="rId28" display="https://mebelnuy.com.ua/"/>
-    <hyperlink ref="B25" r:id="rId29" display="https://mebelnuy.com.ua/tumba-pod-tv-rtv2d2s415-acteka-brv?search=%D0%B0%D1%86%D1%82%D0%B5%D0%BA%D0%B0"/>
-    <hyperlink ref="A26" r:id="rId30" display="https://amado.com.ua"/>
-    <hyperlink ref="A27" r:id="rId31" display="https://mebli-bristol.com.ua/"/>
+    <hyperlink ref="K4" r:id="rId7" display="https://redlight.com.ua/stenki/item-stenka-arktika"/>
+    <hyperlink ref="A5" r:id="rId8" display="http://gerbor.kiev.ua/"/>
+    <hyperlink ref="A6" r:id="rId9" display="http://www.brwland.com.ua/"/>
+    <hyperlink ref="A7" r:id="rId10" display="http://gerbor.dp.ua/"/>
+    <hyperlink ref="A8" r:id="rId11" display="https://www.dybok.com.ua/"/>
+    <hyperlink ref="I8" r:id="rId12" display="https://www.dybok.com.ua/ua/product/detail/6029"/>
+    <hyperlink ref="A9" r:id="rId13" display="https://vashamebel.in.ua/"/>
+    <hyperlink ref="A10" r:id="rId14" display="http://mebel-mebel.com.ua/"/>
+    <hyperlink ref="A11" r:id="rId15" display="http://abcmebli.com.ua"/>
+    <hyperlink ref="A12" r:id="rId16" display="https://gerbor.mebelok.com/"/>
+    <hyperlink ref="A13" r:id="rId17" display="http://maxmebel.com.ua/"/>
+    <hyperlink ref="A14" r:id="rId18" display="https://moyamebel.com.ua/ua"/>
+    <hyperlink ref="A15" r:id="rId19" display="https://mebel-soyuz.com.ua/"/>
+    <hyperlink ref="A16" r:id="rId20" display="https://sofino.ua/"/>
+    <hyperlink ref="A17" r:id="rId21" display="https://www.brw-kiev.com.ua/"/>
+    <hyperlink ref="A18" r:id="rId22" display="https://brw.kiev.ua/"/>
+    <hyperlink ref="A19" r:id="rId23" display="https://lvivmebli.com/"/>
+    <hyperlink ref="A20" r:id="rId24" display="https://letromebel.com.ua/"/>
+    <hyperlink ref="A21" r:id="rId25" display="https://shurup.net.ua/"/>
+    <hyperlink ref="A22" r:id="rId26" display="https://www.taburetka.ua"/>
+    <hyperlink ref="A23" r:id="rId27" display="http://www.maxidom.com.ua/"/>
+    <hyperlink ref="B23" r:id="rId28" display="https://www.maxidom.com.ua/tumba-rtv-atsteka-2d2s415/"/>
+    <hyperlink ref="A24" r:id="rId29" display="https://mebel-online.com.ua"/>
+    <hyperlink ref="A25" r:id="rId30" display="https://mebelnuy.com.ua/"/>
+    <hyperlink ref="B25" r:id="rId31" display="https://mebelnuy.com.ua/tumba-pod-tv-rtv2d2s415-acteka-brv?search=%D0%B0%D1%86%D1%82%D0%B5%D0%BA%D0%B0"/>
+    <hyperlink ref="A26" r:id="rId32" display="https://amado.com.ua"/>
+    <hyperlink ref="A27" r:id="rId33" display="https://mebli-bristol.com.ua/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
